--- a/data/pca/factorExposure/factorExposure_2018-03-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-03-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.007321868512988201</v>
+        <v>0.01206751182062378</v>
       </c>
       <c r="C2">
-        <v>-0.02772790558406172</v>
+        <v>-0.02628117627476401</v>
       </c>
       <c r="D2">
-        <v>0.02035351443937938</v>
+        <v>-0.0257441731330704</v>
       </c>
       <c r="E2">
-        <v>-0.009493397292379269</v>
+        <v>0.01949697333184795</v>
       </c>
       <c r="F2">
-        <v>0.08542537226728052</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.009067586214040557</v>
+      </c>
+      <c r="G2">
+        <v>0.0153253191355986</v>
+      </c>
+      <c r="H2">
+        <v>0.04598726264697033</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.0759450018551317</v>
+        <v>0.05513960455844544</v>
       </c>
       <c r="C3">
-        <v>-0.04994107777711161</v>
+        <v>-0.07681078200700629</v>
       </c>
       <c r="D3">
-        <v>0.001271936017646903</v>
+        <v>-0.0105305480644496</v>
       </c>
       <c r="E3">
-        <v>-0.04697657905488627</v>
+        <v>0.01386506990702286</v>
       </c>
       <c r="F3">
-        <v>0.3191745650166148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.08678572487572786</v>
+      </c>
+      <c r="G3">
+        <v>0.1018247805459589</v>
+      </c>
+      <c r="H3">
+        <v>0.1153455911259913</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04288690351687965</v>
+        <v>0.03689830955351158</v>
       </c>
       <c r="C4">
-        <v>-0.01870011520992671</v>
+        <v>-0.06155300248790078</v>
       </c>
       <c r="D4">
-        <v>0.02586206492540224</v>
+        <v>-0.02090531298781785</v>
       </c>
       <c r="E4">
-        <v>0.03627012361358301</v>
+        <v>-0.0170185751198531</v>
       </c>
       <c r="F4">
-        <v>0.06559419645628574</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.01754750293864787</v>
+      </c>
+      <c r="G4">
+        <v>0.0468085365815159</v>
+      </c>
+      <c r="H4">
+        <v>0.05629700320576285</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.03135573997465888</v>
+        <v>0.02101443812506081</v>
       </c>
       <c r="C6">
-        <v>-0.01604662295953492</v>
+        <v>-0.06189500481323584</v>
       </c>
       <c r="D6">
-        <v>0.03767983263192098</v>
+        <v>-0.01616725811725264</v>
       </c>
       <c r="E6">
-        <v>0.02886539415025175</v>
+        <v>-0.006303299655910408</v>
       </c>
       <c r="F6">
-        <v>0.0219104060136693</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.02192519001437722</v>
+      </c>
+      <c r="G6">
+        <v>0.02258918729997351</v>
+      </c>
+      <c r="H6">
+        <v>0.05445583194876769</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.03797560127427071</v>
+        <v>0.008265626645532412</v>
       </c>
       <c r="C7">
-        <v>0.02760425820512188</v>
+        <v>-0.03270379551888163</v>
       </c>
       <c r="D7">
-        <v>0.02194509696943459</v>
+        <v>-0.01258211838514639</v>
       </c>
       <c r="E7">
-        <v>0.0136024298300317</v>
+        <v>-0.04347923088000528</v>
       </c>
       <c r="F7">
-        <v>0.03423742830367905</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.009289777551154276</v>
+      </c>
+      <c r="G7">
+        <v>0.01135445245383457</v>
+      </c>
+      <c r="H7">
+        <v>0.0364484841037174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01199908856538831</v>
+        <v>-0.003552683471980955</v>
       </c>
       <c r="C8">
-        <v>0.000462851924915479</v>
+        <v>-0.01027167611243803</v>
       </c>
       <c r="D8">
-        <v>0.03338323271256374</v>
+        <v>-0.002501599679135466</v>
       </c>
       <c r="E8">
-        <v>0.02742178252747823</v>
+        <v>-0.009408612079846319</v>
       </c>
       <c r="F8">
-        <v>0.06005868513700504</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.00936246213359827</v>
+      </c>
+      <c r="G8">
+        <v>0.03293530775274364</v>
+      </c>
+      <c r="H8">
+        <v>0.02871859662262201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.02927377447732063</v>
+        <v>0.02132821134040127</v>
       </c>
       <c r="C9">
-        <v>-0.01074290446216263</v>
+        <v>-0.0470348120031465</v>
       </c>
       <c r="D9">
-        <v>0.02708031521720041</v>
+        <v>-0.01468125418921717</v>
       </c>
       <c r="E9">
-        <v>0.01090010587941737</v>
+        <v>-0.005510357993320905</v>
       </c>
       <c r="F9">
-        <v>0.07913941829381725</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.008806100733518256</v>
+      </c>
+      <c r="G9">
+        <v>0.03569751559962522</v>
+      </c>
+      <c r="H9">
+        <v>0.05375230152805897</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.04062477526446596</v>
+        <v>0.1343699923962185</v>
       </c>
       <c r="C10">
-        <v>-0.007029233470022539</v>
+        <v>0.1390896626049113</v>
       </c>
       <c r="D10">
-        <v>-0.1385997987907711</v>
+        <v>0.03410925073343403</v>
       </c>
       <c r="E10">
-        <v>-0.06137788577294392</v>
+        <v>0.004692309033505955</v>
       </c>
       <c r="F10">
-        <v>0.04998349067601403</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.05159802221936355</v>
+      </c>
+      <c r="G10">
+        <v>0.01067257509047491</v>
+      </c>
+      <c r="H10">
+        <v>-0.009797428388259869</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.02648756204763881</v>
+        <v>0.01508079628540287</v>
       </c>
       <c r="C11">
-        <v>-0.02394109522462463</v>
+        <v>-0.04991413522624871</v>
       </c>
       <c r="D11">
-        <v>0.03114988183137848</v>
+        <v>-0.002049483022252521</v>
       </c>
       <c r="E11">
-        <v>0.02312909839420371</v>
+        <v>0.0008143412255451327</v>
       </c>
       <c r="F11">
-        <v>0.02671488913656709</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.005415779194110404</v>
+      </c>
+      <c r="G11">
+        <v>0.01424688271890578</v>
+      </c>
+      <c r="H11">
+        <v>0.04949393843056161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03975644978810387</v>
+        <v>0.01878959778550932</v>
       </c>
       <c r="C12">
-        <v>-0.02582187929871951</v>
+        <v>-0.04783156115968126</v>
       </c>
       <c r="D12">
-        <v>0.02404827502830834</v>
+        <v>-0.005657684896810207</v>
       </c>
       <c r="E12">
-        <v>0.03311740179380142</v>
+        <v>-0.01234825765751883</v>
       </c>
       <c r="F12">
-        <v>1.043838110363361e-05</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.01095052882024682</v>
+      </c>
+      <c r="G12">
+        <v>0.006694200118285014</v>
+      </c>
+      <c r="H12">
+        <v>0.0189981873074934</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.004015347584348229</v>
+        <v>0.01584918351167918</v>
       </c>
       <c r="C13">
-        <v>-0.01827497198454374</v>
+        <v>-0.02369838864708828</v>
       </c>
       <c r="D13">
-        <v>0.005623476296421971</v>
+        <v>-0.02151329172251686</v>
       </c>
       <c r="E13">
-        <v>0.004497310288394345</v>
+        <v>0.01556312499800021</v>
       </c>
       <c r="F13">
-        <v>0.07392702470816516</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.007873769901348688</v>
+      </c>
+      <c r="G13">
+        <v>0.04448636596348451</v>
+      </c>
+      <c r="H13">
+        <v>0.07111375363878082</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.02236247794191954</v>
+        <v>0.007982110998192399</v>
       </c>
       <c r="C14">
-        <v>0.001898150803041631</v>
+        <v>-0.01992965790968577</v>
       </c>
       <c r="D14">
-        <v>0.01314863666748444</v>
+        <v>-0.007214183535845175</v>
       </c>
       <c r="E14">
-        <v>0.01381948052934897</v>
+        <v>-0.01514478660354322</v>
       </c>
       <c r="F14">
-        <v>0.04633820308221653</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.009127404631445849</v>
+      </c>
+      <c r="G14">
+        <v>0.02710936676513737</v>
+      </c>
+      <c r="H14">
+        <v>0.01838971392790807</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02832691627475468</v>
+        <v>0.01714517659950982</v>
       </c>
       <c r="C16">
-        <v>-0.02384853179649782</v>
+        <v>-0.04352653292658121</v>
       </c>
       <c r="D16">
-        <v>0.03468006234603938</v>
+        <v>-0.001038714529290519</v>
       </c>
       <c r="E16">
-        <v>0.02495499233375355</v>
+        <v>-0.002955858152878683</v>
       </c>
       <c r="F16">
-        <v>0.03071354668166663</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.005628765728672831</v>
+      </c>
+      <c r="G16">
+        <v>0.01647159663642775</v>
+      </c>
+      <c r="H16">
+        <v>0.03785419625943254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.03009361199762711</v>
+        <v>0.01665628774148317</v>
       </c>
       <c r="C19">
-        <v>-0.01857450309559883</v>
+        <v>-0.04264939624392389</v>
       </c>
       <c r="D19">
-        <v>0.03438655769117675</v>
+        <v>-0.01322084818561762</v>
       </c>
       <c r="E19">
-        <v>0.03907094894300941</v>
+        <v>-0.008650918286415296</v>
       </c>
       <c r="F19">
-        <v>0.07691299330059691</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.007896154293697834</v>
+      </c>
+      <c r="G19">
+        <v>0.04998202537336411</v>
+      </c>
+      <c r="H19">
+        <v>0.05377682978087468</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.002030621423950584</v>
+        <v>0.003782927672413105</v>
       </c>
       <c r="C20">
-        <v>0.009877739004070466</v>
+        <v>-0.02025276468002148</v>
       </c>
       <c r="D20">
-        <v>0.00115689511427512</v>
+        <v>-0.01137208141497219</v>
       </c>
       <c r="E20">
-        <v>0.01068152588009078</v>
+        <v>-0.00350025206898008</v>
       </c>
       <c r="F20">
-        <v>0.05177019917454213</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.01593646431130269</v>
+      </c>
+      <c r="G20">
+        <v>0.03986539058664507</v>
+      </c>
+      <c r="H20">
+        <v>0.0313689623703783</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.02008559269368495</v>
+        <v>0.009847481756226798</v>
       </c>
       <c r="C21">
-        <v>0.01495035591180386</v>
+        <v>-0.0182276954502953</v>
       </c>
       <c r="D21">
-        <v>0.02609728713216985</v>
+        <v>-0.01345290302030614</v>
       </c>
       <c r="E21">
-        <v>0.004553428154035218</v>
+        <v>-0.01760615882944792</v>
       </c>
       <c r="F21">
-        <v>0.02739250794441874</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.01971798210769567</v>
+      </c>
+      <c r="G21">
+        <v>0.02493089872363989</v>
+      </c>
+      <c r="H21">
+        <v>0.05142900029575596</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02441330159644687</v>
+        <v>0.01093252993267712</v>
       </c>
       <c r="C24">
-        <v>-0.02093552221882864</v>
+        <v>-0.04179407414864083</v>
       </c>
       <c r="D24">
-        <v>0.01370644406379888</v>
+        <v>-0.006497325629886448</v>
       </c>
       <c r="E24">
-        <v>0.01910181162726318</v>
+        <v>-0.002026919384380793</v>
       </c>
       <c r="F24">
-        <v>0.02984787843751655</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.008088676642418129</v>
+      </c>
+      <c r="G24">
+        <v>0.007608474058999577</v>
+      </c>
+      <c r="H24">
+        <v>0.04420189094573518</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.02796119957667298</v>
+        <v>0.02479423565215599</v>
       </c>
       <c r="C25">
-        <v>-0.01951766390414612</v>
+        <v>-0.04817742187350695</v>
       </c>
       <c r="D25">
-        <v>0.02562465596343622</v>
+        <v>-0.009901231713447232</v>
       </c>
       <c r="E25">
-        <v>0.01784346927136935</v>
+        <v>-0.006899039956031461</v>
       </c>
       <c r="F25">
-        <v>0.03408799557024492</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.01211192728696331</v>
+      </c>
+      <c r="G25">
+        <v>0.01700290062278021</v>
+      </c>
+      <c r="H25">
+        <v>0.04314442346295929</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.01235347212752839</v>
+        <v>0.007310428785714308</v>
       </c>
       <c r="C26">
-        <v>-0.007919998433516932</v>
+        <v>-0.00530974361968372</v>
       </c>
       <c r="D26">
-        <v>0.01451589296359236</v>
+        <v>-0.02241368937565315</v>
       </c>
       <c r="E26">
-        <v>-0.007709441679324072</v>
+        <v>-0.003011995987647477</v>
       </c>
       <c r="F26">
-        <v>0.053492467619429</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.009827992797178758</v>
+      </c>
+      <c r="G26">
+        <v>0.01241500694376817</v>
+      </c>
+      <c r="H26">
+        <v>0.0208092628923103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.02880095251762212</v>
+        <v>0.01024438478619715</v>
       </c>
       <c r="C27">
-        <v>-0.01551650798894579</v>
+        <v>-0.0100196080613841</v>
       </c>
       <c r="D27">
-        <v>-0.004558315376755722</v>
+        <v>0.001485501834578141</v>
       </c>
       <c r="E27">
-        <v>0.03000035239476172</v>
+        <v>-0.006362591667498423</v>
       </c>
       <c r="F27">
-        <v>0.01253532277920721</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.0001702469597088502</v>
+      </c>
+      <c r="G27">
+        <v>0.009689250161185662</v>
+      </c>
+      <c r="H27">
+        <v>-0.007493770495762615</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.07836968298965059</v>
+        <v>0.186893396349477</v>
       </c>
       <c r="C28">
-        <v>-0.01700734687520484</v>
+        <v>0.1823387748262035</v>
       </c>
       <c r="D28">
-        <v>-0.1966039025225619</v>
+        <v>0.03232599014340935</v>
       </c>
       <c r="E28">
-        <v>-0.1048007434058442</v>
+        <v>-0.01082661295188357</v>
       </c>
       <c r="F28">
-        <v>0.04582844884838477</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.04680611129091975</v>
+      </c>
+      <c r="G28">
+        <v>0.0002696189868369462</v>
+      </c>
+      <c r="H28">
+        <v>-0.01224814346794632</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.02362944227131075</v>
+        <v>0.0128401065998044</v>
       </c>
       <c r="C29">
-        <v>0.0004738794692278844</v>
+        <v>-0.01796090081956904</v>
       </c>
       <c r="D29">
-        <v>0.01545636123982891</v>
+        <v>-0.005973127881758048</v>
       </c>
       <c r="E29">
-        <v>0.01652610112948313</v>
+        <v>-0.01471071056592848</v>
       </c>
       <c r="F29">
-        <v>0.04267793159806114</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.01038991106916355</v>
+      </c>
+      <c r="G29">
+        <v>0.02611771006059541</v>
+      </c>
+      <c r="H29">
+        <v>0.01146769807909199</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.03328393163797379</v>
+        <v>0.02658901771618982</v>
       </c>
       <c r="C30">
-        <v>-0.07025849336995789</v>
+        <v>-0.08795270214042229</v>
       </c>
       <c r="D30">
-        <v>0.0508415049134034</v>
+        <v>-0.02770187082716446</v>
       </c>
       <c r="E30">
-        <v>0.02739147998505389</v>
+        <v>0.03317481605926919</v>
       </c>
       <c r="F30">
-        <v>0.08721343209970135</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.007767095815941599</v>
+      </c>
+      <c r="G30">
+        <v>0.05136227300907178</v>
+      </c>
+      <c r="H30">
+        <v>0.07650421166583486</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04745518729933053</v>
+        <v>0.04100416056796093</v>
       </c>
       <c r="C31">
-        <v>-0.03653182582161053</v>
+        <v>-0.03149267441985629</v>
       </c>
       <c r="D31">
-        <v>0.01524290012816648</v>
+        <v>-0.0006150039274200009</v>
       </c>
       <c r="E31">
-        <v>0.02356473286968454</v>
+        <v>-0.0007133965451942659</v>
       </c>
       <c r="F31">
-        <v>0.03596992847904858</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.008639601220792541</v>
+      </c>
+      <c r="G31">
+        <v>0.01342647800864779</v>
+      </c>
+      <c r="H31">
+        <v>0.005665043241760352</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.02141802229441835</v>
+        <v>0.001536787077655267</v>
       </c>
       <c r="C32">
-        <v>0.01494632811680932</v>
+        <v>-0.01391570883898119</v>
       </c>
       <c r="D32">
-        <v>0.04649747987438625</v>
+        <v>0.007739251230077156</v>
       </c>
       <c r="E32">
-        <v>0.0440010395145371</v>
+        <v>-0.02908201449627235</v>
       </c>
       <c r="F32">
-        <v>0.04456586932029594</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.007179520682982733</v>
+      </c>
+      <c r="G32">
+        <v>0.05062892151200591</v>
+      </c>
+      <c r="H32">
+        <v>0.05207180375001669</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.02794215769758245</v>
+        <v>0.01740659429286033</v>
       </c>
       <c r="C33">
-        <v>-0.04486056008737111</v>
+        <v>-0.04703947494798263</v>
       </c>
       <c r="D33">
-        <v>0.0454754867291423</v>
+        <v>-0.01356507989552763</v>
       </c>
       <c r="E33">
-        <v>0.006644400693472415</v>
+        <v>0.01962130631972611</v>
       </c>
       <c r="F33">
-        <v>0.06235296928294606</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.02192796962111421</v>
+      </c>
+      <c r="G33">
+        <v>0.0214711885251179</v>
+      </c>
+      <c r="H33">
+        <v>0.04926630599888034</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03275208347216108</v>
+        <v>0.02440769424030411</v>
       </c>
       <c r="C34">
-        <v>-0.01716500418335949</v>
+        <v>-0.05065566242534322</v>
       </c>
       <c r="D34">
-        <v>0.03340409726753762</v>
+        <v>0.006268316187586705</v>
       </c>
       <c r="E34">
-        <v>0.03082933958693803</v>
+        <v>-0.01438524045849707</v>
       </c>
       <c r="F34">
-        <v>0.02647890632750469</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.015034769938598</v>
+      </c>
+      <c r="G34">
+        <v>0.01019327831567313</v>
+      </c>
+      <c r="H34">
+        <v>0.03537030409683067</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01860210134138057</v>
+        <v>0.01450977734718047</v>
       </c>
       <c r="C36">
-        <v>-0.0009314437375184689</v>
+        <v>-0.005892037563564919</v>
       </c>
       <c r="D36">
-        <v>0.006315589401530669</v>
+        <v>-0.009029692291751559</v>
       </c>
       <c r="E36">
-        <v>0.009799917155847198</v>
+        <v>-0.008313404648376136</v>
       </c>
       <c r="F36">
-        <v>0.029937086503078</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.008558879083476873</v>
+      </c>
+      <c r="G36">
+        <v>0.01127901594145874</v>
+      </c>
+      <c r="H36">
+        <v>0.01601038426472549</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.007618572128067165</v>
+        <v>0.02350186490682222</v>
       </c>
       <c r="C38">
-        <v>-0.005031115779874918</v>
+        <v>-0.01861140638761128</v>
       </c>
       <c r="D38">
-        <v>0.002353268221162686</v>
+        <v>0.009724560427556468</v>
       </c>
       <c r="E38">
-        <v>-0.02441311807034518</v>
+        <v>-0.001020099089816583</v>
       </c>
       <c r="F38">
-        <v>0.04375789477563558</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.003266388387207606</v>
+      </c>
+      <c r="G38">
+        <v>0.01603852029996278</v>
+      </c>
+      <c r="H38">
+        <v>0.03687737634960114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.02410609354733063</v>
+        <v>0.00497742989886632</v>
       </c>
       <c r="C39">
-        <v>-0.02197118647954335</v>
+        <v>-0.08722382097717753</v>
       </c>
       <c r="D39">
-        <v>0.05279083036841704</v>
+        <v>-0.01453385485738839</v>
       </c>
       <c r="E39">
-        <v>0.02585794655007875</v>
+        <v>0.006247623046942713</v>
       </c>
       <c r="F39">
-        <v>0.04863021938946731</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.006295307021582782</v>
+      </c>
+      <c r="G39">
+        <v>0.02349902497646692</v>
+      </c>
+      <c r="H39">
+        <v>0.0795723964014188</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.009966336307030836</v>
+        <v>0.02210769182310991</v>
       </c>
       <c r="C40">
-        <v>-0.04848748556398266</v>
+        <v>-0.03124005734581956</v>
       </c>
       <c r="D40">
-        <v>0.01346991097620796</v>
+        <v>-0.009326517299473194</v>
       </c>
       <c r="E40">
-        <v>0.02772821895498263</v>
+        <v>0.02501622062322435</v>
       </c>
       <c r="F40">
-        <v>0.03763041261732147</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.02116199243505598</v>
+      </c>
+      <c r="G40">
+        <v>0.02105284989197416</v>
+      </c>
+      <c r="H40">
+        <v>0.05315955036715261</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.007969935494227443</v>
+        <v>0.01209757401666356</v>
       </c>
       <c r="C41">
-        <v>0.0006112736194284393</v>
+        <v>0.007837608677033777</v>
       </c>
       <c r="D41">
-        <v>0.006691873976436109</v>
+        <v>-0.00134599217375303</v>
       </c>
       <c r="E41">
-        <v>-0.01298483702219764</v>
+        <v>-0.005676821685512176</v>
       </c>
       <c r="F41">
-        <v>0.00379689040625013</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.005860845513373153</v>
+      </c>
+      <c r="G41">
+        <v>-0.00738491334160504</v>
+      </c>
+      <c r="H41">
+        <v>-0.002763798436379667</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.2094960196023377</v>
+        <v>0.08832516741675092</v>
       </c>
       <c r="C42">
-        <v>-0.2314472173095115</v>
+        <v>-0.2031319985267687</v>
       </c>
       <c r="D42">
-        <v>0.3666307392567444</v>
+        <v>-0.1347766301938672</v>
       </c>
       <c r="E42">
-        <v>-0.7985021780172309</v>
+        <v>0.187967927040934</v>
       </c>
       <c r="F42">
-        <v>-0.2954729082261701</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.5485540083125178</v>
+      </c>
+      <c r="G42">
+        <v>-0.7594754450465584</v>
+      </c>
+      <c r="H42">
+        <v>0.04997201993001203</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.007477302251421497</v>
+        <v>0.01292884203877691</v>
       </c>
       <c r="C43">
-        <v>-0.005474025126719764</v>
+        <v>0.007239678391130701</v>
       </c>
       <c r="D43">
-        <v>0.009742804540735835</v>
+        <v>-0.002139873265490836</v>
       </c>
       <c r="E43">
-        <v>-0.001524368120169266</v>
+        <v>-0.001276689335425577</v>
       </c>
       <c r="F43">
-        <v>0.02500772561339458</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.004863360658212955</v>
+      </c>
+      <c r="G43">
+        <v>-0.005764303382332313</v>
+      </c>
+      <c r="H43">
+        <v>0.007954342831922907</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.02388448012910344</v>
+        <v>0.008208687295172797</v>
       </c>
       <c r="C44">
-        <v>0.00350542972970241</v>
+        <v>-0.03998702898888071</v>
       </c>
       <c r="D44">
-        <v>0.0278667549463704</v>
+        <v>-0.00613388250493674</v>
       </c>
       <c r="E44">
-        <v>-0.004616351334749646</v>
+        <v>-0.01375772978902195</v>
       </c>
       <c r="F44">
-        <v>0.08991143470291198</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.02467485314633074</v>
+      </c>
+      <c r="G44">
+        <v>0.02189157085593455</v>
+      </c>
+      <c r="H44">
+        <v>0.06055766023987116</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01743170526399101</v>
+        <v>0.004556801021800896</v>
       </c>
       <c r="C46">
-        <v>-0.009719518501784695</v>
+        <v>-0.01188377562383573</v>
       </c>
       <c r="D46">
-        <v>0.04671315783870603</v>
+        <v>-0.01087709589055392</v>
       </c>
       <c r="E46">
-        <v>0.02345553707885781</v>
+        <v>-0.00344995317218921</v>
       </c>
       <c r="F46">
-        <v>0.06100025554371626</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.01220720255976069</v>
+      </c>
+      <c r="G46">
+        <v>0.02050684576103964</v>
+      </c>
+      <c r="H46">
+        <v>0.01646945553245508</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.07424680954510024</v>
+        <v>0.05622136358302394</v>
       </c>
       <c r="C47">
-        <v>-0.0535953495785807</v>
+        <v>-0.06728847563024862</v>
       </c>
       <c r="D47">
-        <v>0.006520341746062939</v>
+        <v>0.006522080618748389</v>
       </c>
       <c r="E47">
-        <v>0.03359874582216724</v>
+        <v>-0.007627120420979279</v>
       </c>
       <c r="F47">
-        <v>0.008114293484187326</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.001836016204057346</v>
+      </c>
+      <c r="G47">
+        <v>0.00681353620374647</v>
+      </c>
+      <c r="H47">
+        <v>-0.03342168265893154</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01653336669546061</v>
+        <v>0.01379462899893082</v>
       </c>
       <c r="C48">
-        <v>-0.01071937525338327</v>
+        <v>-0.01526308334616215</v>
       </c>
       <c r="D48">
-        <v>0.01380553474972161</v>
+        <v>-0.0004333173234680271</v>
       </c>
       <c r="E48">
-        <v>0.009677232756240405</v>
+        <v>-0.001342407630734025</v>
       </c>
       <c r="F48">
-        <v>0.03511035149020138</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.005740651977761398</v>
+      </c>
+      <c r="G48">
+        <v>0.01316725909795223</v>
+      </c>
+      <c r="H48">
+        <v>0.02053475101655395</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.08017297379498588</v>
+        <v>0.06085175709171939</v>
       </c>
       <c r="C50">
-        <v>-0.03734682216741819</v>
+        <v>-0.06248769010811873</v>
       </c>
       <c r="D50">
-        <v>0.02771147738629652</v>
+        <v>0.005438543701566902</v>
       </c>
       <c r="E50">
-        <v>0.02181559126276669</v>
+        <v>-0.01936407425228261</v>
       </c>
       <c r="F50">
-        <v>0.02098164297344604</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.006442041922458664</v>
+      </c>
+      <c r="G50">
+        <v>0.007496676658973791</v>
+      </c>
+      <c r="H50">
+        <v>-0.01722515673816448</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.0140782263666164</v>
+        <v>0.01240162819928738</v>
       </c>
       <c r="C51">
-        <v>0.001007923167885159</v>
+        <v>-0.01505341895742241</v>
       </c>
       <c r="D51">
-        <v>-0.004622342522830983</v>
+        <v>-0.005916129972458996</v>
       </c>
       <c r="E51">
-        <v>0.002066054752477202</v>
+        <v>-0.007875942245648826</v>
       </c>
       <c r="F51">
-        <v>0.0994137577522705</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.01262078412295594</v>
+      </c>
+      <c r="G51">
+        <v>0.02647559729348448</v>
+      </c>
+      <c r="H51">
+        <v>0.04788250876739351</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.08359291948127538</v>
+        <v>0.07292014891862987</v>
       </c>
       <c r="C53">
-        <v>-0.05907889215510485</v>
+        <v>-0.1049272861748346</v>
       </c>
       <c r="D53">
-        <v>0.03560759494260393</v>
+        <v>0.005301859003638601</v>
       </c>
       <c r="E53">
-        <v>0.0492391527322327</v>
+        <v>-0.01360804069925755</v>
       </c>
       <c r="F53">
-        <v>-0.02675851522537554</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.02562194204029161</v>
+      </c>
+      <c r="G53">
+        <v>-0.005251937628710603</v>
+      </c>
+      <c r="H53">
+        <v>-0.03523420400321787</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02550354947624918</v>
+        <v>0.02311637219492774</v>
       </c>
       <c r="C54">
-        <v>-0.00212504656708308</v>
+        <v>0.0005960153893516357</v>
       </c>
       <c r="D54">
-        <v>-0.004945385530232716</v>
+        <v>0.006885587901297069</v>
       </c>
       <c r="E54">
-        <v>0.01945412583807585</v>
+        <v>-0.00703617731013175</v>
       </c>
       <c r="F54">
-        <v>0.03267924092444938</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.01850254317397666</v>
+      </c>
+      <c r="G54">
+        <v>0.03022161694389095</v>
+      </c>
+      <c r="H54">
+        <v>0.006659253490116887</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.08148373791907583</v>
+        <v>0.05355838857324064</v>
       </c>
       <c r="C55">
-        <v>-0.05276977648968167</v>
+        <v>-0.09366297359989673</v>
       </c>
       <c r="D55">
-        <v>0.0416772032053491</v>
+        <v>0.003355130769032063</v>
       </c>
       <c r="E55">
-        <v>0.0343175068322563</v>
+        <v>-0.01279956623903486</v>
       </c>
       <c r="F55">
-        <v>-0.03061857141060824</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.006056577633146135</v>
+      </c>
+      <c r="G55">
+        <v>0.0007059995860830292</v>
+      </c>
+      <c r="H55">
+        <v>-0.0393376728689533</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1203425835530133</v>
+        <v>0.1003889358665969</v>
       </c>
       <c r="C56">
-        <v>-0.09037901306055152</v>
+        <v>-0.1352270935728495</v>
       </c>
       <c r="D56">
-        <v>0.01542754745157905</v>
+        <v>0.01304599603936382</v>
       </c>
       <c r="E56">
-        <v>0.0786067845603971</v>
+        <v>-0.01402311837171481</v>
       </c>
       <c r="F56">
-        <v>-0.05135461275260293</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.04891842358977454</v>
+      </c>
+      <c r="G56">
+        <v>-0.01235130481047988</v>
+      </c>
+      <c r="H56">
+        <v>-0.07591205338401213</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.0309585465872486</v>
+        <v>0.02352738682095861</v>
       </c>
       <c r="C57">
-        <v>-0.02763803615107461</v>
+        <v>-0.02925276666475846</v>
       </c>
       <c r="D57">
-        <v>0.02178508559228487</v>
+        <v>-0.02371563451840599</v>
       </c>
       <c r="E57">
-        <v>-0.03192115583098998</v>
+        <v>0.009506863796448996</v>
       </c>
       <c r="F57">
-        <v>0.05419225575062923</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.03756077511615336</v>
+      </c>
+      <c r="G57">
+        <v>0.03991866767312736</v>
+      </c>
+      <c r="H57">
+        <v>0.05933696730037508</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1267588616374178</v>
+        <v>0.08550810262954693</v>
       </c>
       <c r="C58">
-        <v>-0.22462299463087</v>
+        <v>-0.1858439297753807</v>
       </c>
       <c r="D58">
-        <v>0.2160800650606499</v>
+        <v>-0.01253646959974814</v>
       </c>
       <c r="E58">
-        <v>0.004462103002016157</v>
+        <v>0.3407244264932134</v>
       </c>
       <c r="F58">
-        <v>0.5700747106751554</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.6240634707476476</v>
+      </c>
+      <c r="G58">
+        <v>0.5885762353250419</v>
+      </c>
+      <c r="H58">
+        <v>-0.1762209034874155</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.05354311959294263</v>
+        <v>0.2043685149691009</v>
       </c>
       <c r="C59">
-        <v>-0.03450521302141284</v>
+        <v>0.1701464696226007</v>
       </c>
       <c r="D59">
-        <v>-0.1771024107250395</v>
+        <v>0.03963357847035836</v>
       </c>
       <c r="E59">
-        <v>-0.06772119002199971</v>
+        <v>0.01173032370716736</v>
       </c>
       <c r="F59">
-        <v>0.07578539499127397</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.01173799631157575</v>
+      </c>
+      <c r="G59">
+        <v>0.01250690995143432</v>
+      </c>
+      <c r="H59">
+        <v>0.01880271369740885</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1152931920138398</v>
+        <v>0.2198561221365369</v>
       </c>
       <c r="C60">
-        <v>-0.1218597315581331</v>
+        <v>-0.06949956369605374</v>
       </c>
       <c r="D60">
-        <v>-0.007020203705919178</v>
+        <v>0.007581263873629741</v>
       </c>
       <c r="E60">
-        <v>-0.02879694336684839</v>
+        <v>0.05775827577724771</v>
       </c>
       <c r="F60">
-        <v>0.1748801252270993</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.1077419580892887</v>
+      </c>
+      <c r="G60">
+        <v>0.03282593698523192</v>
+      </c>
+      <c r="H60">
+        <v>0.3881358244183052</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02149655675229967</v>
+        <v>0.01404607272562646</v>
       </c>
       <c r="C61">
-        <v>-0.01286451296313682</v>
+        <v>-0.06160328890454726</v>
       </c>
       <c r="D61">
-        <v>0.04032609484872781</v>
+        <v>-0.005553249492639039</v>
       </c>
       <c r="E61">
-        <v>0.008991122689401053</v>
+        <v>-0.004322554568798864</v>
       </c>
       <c r="F61">
-        <v>0.02382816303401263</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.008014783068207524</v>
+      </c>
+      <c r="G61">
+        <v>0.01944539240196937</v>
+      </c>
+      <c r="H61">
+        <v>0.06046355731985702</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01372109584045183</v>
+        <v>0.007133961762891118</v>
       </c>
       <c r="C63">
-        <v>-0.003077615285591391</v>
+        <v>-0.02193100289879651</v>
       </c>
       <c r="D63">
-        <v>0.0187782575309237</v>
+        <v>-0.0078100680871067</v>
       </c>
       <c r="E63">
-        <v>0.002140763642436417</v>
+        <v>-0.01024460411260099</v>
       </c>
       <c r="F63">
-        <v>0.006985915223639379</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.002108365874658874</v>
+      </c>
+      <c r="G63">
+        <v>0.01145516673816457</v>
+      </c>
+      <c r="H63">
+        <v>0.01435438425192066</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.03702183184935978</v>
+        <v>0.03521792132981897</v>
       </c>
       <c r="C64">
-        <v>-0.007057621399519853</v>
+        <v>-0.04309072387333169</v>
       </c>
       <c r="D64">
-        <v>0.02154446850106203</v>
+        <v>-0.003235715611232393</v>
       </c>
       <c r="E64">
-        <v>0.0228570958736917</v>
+        <v>-0.01776868103888705</v>
       </c>
       <c r="F64">
-        <v>0.01320593792588656</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.0102243118225545</v>
+      </c>
+      <c r="G64">
+        <v>-0.01196017852383975</v>
+      </c>
+      <c r="H64">
+        <v>0.04087753346845018</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.03547418774908197</v>
+        <v>0.0386102908580184</v>
       </c>
       <c r="C65">
-        <v>-0.01829602615549768</v>
+        <v>-0.0808921001992588</v>
       </c>
       <c r="D65">
-        <v>0.03789160961694268</v>
+        <v>-0.0168443436961921</v>
       </c>
       <c r="E65">
-        <v>0.03220634628682211</v>
+        <v>-0.009361023485172003</v>
       </c>
       <c r="F65">
-        <v>0.01531569436878487</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.04106164691981533</v>
+      </c>
+      <c r="G65">
+        <v>0.02019388483561844</v>
+      </c>
+      <c r="H65">
+        <v>0.06723810428908947</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.02777634444861892</v>
+        <v>0.01351184889451274</v>
       </c>
       <c r="C66">
-        <v>-0.0326864181813192</v>
+        <v>-0.1156549802229567</v>
       </c>
       <c r="D66">
-        <v>0.05492155045628083</v>
+        <v>-0.01328132779183581</v>
       </c>
       <c r="E66">
-        <v>0.0528626053028487</v>
+        <v>0.007736254463325165</v>
       </c>
       <c r="F66">
-        <v>0.03696951439121885</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.02994150984782718</v>
+      </c>
+      <c r="G66">
+        <v>0.03568286315499371</v>
+      </c>
+      <c r="H66">
+        <v>0.08845285384217205</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.01732165960468164</v>
+        <v>0.04644606840032502</v>
       </c>
       <c r="C67">
-        <v>-0.01669130369962877</v>
+        <v>-0.02700622091408489</v>
       </c>
       <c r="D67">
-        <v>-0.00768709813786727</v>
+        <v>0.009703680920208155</v>
       </c>
       <c r="E67">
-        <v>-0.01470337255835971</v>
+        <v>6.936637255621266e-05</v>
       </c>
       <c r="F67">
-        <v>0.02653678923022895</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.01225592304089149</v>
+      </c>
+      <c r="G67">
+        <v>0.01489537652770894</v>
+      </c>
+      <c r="H67">
+        <v>0.03415721810444493</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.07172021414142804</v>
+        <v>0.2045586755709946</v>
       </c>
       <c r="C68">
-        <v>-0.03465746026471751</v>
+        <v>0.2075715445152292</v>
       </c>
       <c r="D68">
-        <v>-0.1982803510985398</v>
+        <v>0.02288571146186726</v>
       </c>
       <c r="E68">
-        <v>-0.07511260323033236</v>
+        <v>0.01078933567601824</v>
       </c>
       <c r="F68">
-        <v>0.070934312168233</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.06064610564470006</v>
+      </c>
+      <c r="G68">
+        <v>0.003885093683568612</v>
+      </c>
+      <c r="H68">
+        <v>-0.03766620882504074</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05473488429938233</v>
+        <v>0.05633691914189719</v>
       </c>
       <c r="C69">
-        <v>-0.04198719644136809</v>
+        <v>-0.06014266203509516</v>
       </c>
       <c r="D69">
-        <v>0.008864506161948928</v>
+        <v>0.01117263799673092</v>
       </c>
       <c r="E69">
-        <v>0.03400976928467512</v>
+        <v>-0.006965592883307338</v>
       </c>
       <c r="F69">
-        <v>0.01471751206885528</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.02254480397444335</v>
+      </c>
+      <c r="G69">
+        <v>0.006373808152843565</v>
+      </c>
+      <c r="H69">
+        <v>0.003946542353182725</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.07724420338094611</v>
+        <v>0.1808814850328729</v>
       </c>
       <c r="C71">
-        <v>-0.04299823459053977</v>
+        <v>0.1621038144826551</v>
       </c>
       <c r="D71">
-        <v>-0.1931190356189</v>
+        <v>0.02491758732274362</v>
       </c>
       <c r="E71">
-        <v>-0.1122033948715058</v>
+        <v>0.01328353701660112</v>
       </c>
       <c r="F71">
-        <v>0.07317235213944641</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.06860929431212168</v>
+      </c>
+      <c r="G71">
+        <v>-0.0009226811162864095</v>
+      </c>
+      <c r="H71">
+        <v>-0.01397305711953358</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.09228717591679013</v>
+        <v>0.05680741613435133</v>
       </c>
       <c r="C72">
-        <v>-0.08959894271458169</v>
+        <v>-0.1126312405862265</v>
       </c>
       <c r="D72">
-        <v>0.06447621260082512</v>
+        <v>0.00860975900975614</v>
       </c>
       <c r="E72">
-        <v>0.08525387788556082</v>
+        <v>0.01569329174394905</v>
       </c>
       <c r="F72">
-        <v>0.09191642593336678</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.0466432787235609</v>
+      </c>
+      <c r="G72">
+        <v>0.05044710668831399</v>
+      </c>
+      <c r="H72">
+        <v>0.0922472043687835</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.1391297926769262</v>
+        <v>0.2834813435534585</v>
       </c>
       <c r="C73">
-        <v>-0.1895418465786455</v>
+        <v>-0.1470120418805484</v>
       </c>
       <c r="D73">
-        <v>-0.007602810888866202</v>
+        <v>0.000833949562238371</v>
       </c>
       <c r="E73">
-        <v>-0.08103772292101051</v>
+        <v>0.09556378055906263</v>
       </c>
       <c r="F73">
-        <v>0.2066300485513106</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.1349275562679012</v>
+      </c>
+      <c r="G73">
+        <v>0.02559139505056311</v>
+      </c>
+      <c r="H73">
+        <v>0.4915466317568088</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1099009437549954</v>
+        <v>0.09631371237636201</v>
       </c>
       <c r="C74">
-        <v>-0.08180040556513153</v>
+        <v>-0.1362513666375456</v>
       </c>
       <c r="D74">
-        <v>0.02250145340475816</v>
+        <v>0.01236549910994267</v>
       </c>
       <c r="E74">
-        <v>0.05571261656963321</v>
+        <v>-0.01559305043618981</v>
       </c>
       <c r="F74">
-        <v>-0.07061766505492677</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.033406389412479</v>
+      </c>
+      <c r="G74">
+        <v>-0.004530622531445976</v>
+      </c>
+      <c r="H74">
+        <v>-0.05426599839634937</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.1921503283722601</v>
+        <v>0.2047818600218503</v>
       </c>
       <c r="C75">
-        <v>-0.1625679498615936</v>
+        <v>-0.2324568120107209</v>
       </c>
       <c r="D75">
-        <v>0.002090686654989992</v>
+        <v>0.03157040391366318</v>
       </c>
       <c r="E75">
-        <v>0.1701934632952467</v>
+        <v>-0.01503897240774933</v>
       </c>
       <c r="F75">
-        <v>-0.105895414743274</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.100620664547379</v>
+      </c>
+      <c r="G75">
+        <v>-0.008708791888543904</v>
+      </c>
+      <c r="H75">
+        <v>-0.1706182852342781</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2489714917916505</v>
+        <v>0.1552853721149829</v>
       </c>
       <c r="C76">
-        <v>-0.1587718893019099</v>
+        <v>-0.2053150139862279</v>
       </c>
       <c r="D76">
-        <v>0.0184884028840371</v>
+        <v>0.02662754956288534</v>
       </c>
       <c r="E76">
-        <v>0.1828997608978999</v>
+        <v>-0.05572321130556616</v>
       </c>
       <c r="F76">
-        <v>-0.1964955824571921</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.08322624093103771</v>
+      </c>
+      <c r="G76">
+        <v>-0.02107210258172076</v>
+      </c>
+      <c r="H76">
+        <v>-0.1459336417594051</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.08244286542642708</v>
+        <v>0.04393222051091029</v>
       </c>
       <c r="C77">
-        <v>-0.07651298092788208</v>
+        <v>-0.08430881899741172</v>
       </c>
       <c r="D77">
-        <v>0.07646777110373734</v>
+        <v>-0.01452509028076513</v>
       </c>
       <c r="E77">
-        <v>-0.02857247051133132</v>
+        <v>0.01807643949797348</v>
       </c>
       <c r="F77">
-        <v>0.1115305122606788</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.05070290806058613</v>
+      </c>
+      <c r="G77">
+        <v>0.03245871722530198</v>
+      </c>
+      <c r="H77">
+        <v>0.0193727865297092</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.05154007693763452</v>
+        <v>0.022492016247956</v>
       </c>
       <c r="C78">
-        <v>-0.03209186324633327</v>
+        <v>-0.07640153886677123</v>
       </c>
       <c r="D78">
-        <v>0.1007724482373099</v>
+        <v>-0.007860815317188333</v>
       </c>
       <c r="E78">
-        <v>0.03855768053062449</v>
+        <v>-0.003870927394069882</v>
       </c>
       <c r="F78">
-        <v>0.07862364841277988</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.006392601808963496</v>
+      </c>
+      <c r="G78">
+        <v>0.04124475236788468</v>
+      </c>
+      <c r="H78">
+        <v>0.09159341276533368</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2751,68 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.6481863536335603</v>
+        <v>0.09838302283447722</v>
       </c>
       <c r="C80">
-        <v>0.7383308301168071</v>
+        <v>-0.09279029401031121</v>
       </c>
       <c r="D80">
-        <v>0.08150891031840037</v>
+        <v>-0.004648135325017795</v>
       </c>
       <c r="E80">
-        <v>-0.03545024777612275</v>
+        <v>-0.8982392028726224</v>
       </c>
       <c r="F80">
-        <v>0.05220436135318899</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.3542814052221997</v>
+      </c>
+      <c r="G80">
+        <v>0.07364471889432204</v>
+      </c>
+      <c r="H80">
+        <v>0.07667560914874075</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.153529056526876</v>
+        <v>0.1300901420037147</v>
       </c>
       <c r="C81">
-        <v>-0.1116293614373027</v>
+        <v>-0.1438582827348296</v>
       </c>
       <c r="D81">
-        <v>0.003603716996558262</v>
+        <v>0.01919939812125421</v>
       </c>
       <c r="E81">
-        <v>0.1316401402463754</v>
+        <v>-0.02148334425487364</v>
       </c>
       <c r="F81">
-        <v>-0.08903060447808833</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.05332032030358783</v>
+      </c>
+      <c r="G81">
+        <v>-0.006021853920614824</v>
+      </c>
+      <c r="H81">
+        <v>-0.1012728201566565</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +2829,42 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.02456402870493651</v>
+        <v>0.0215945001589671</v>
       </c>
       <c r="C83">
-        <v>-0.02434469636221493</v>
+        <v>-0.02350031721280429</v>
       </c>
       <c r="D83">
-        <v>0.02281570970351548</v>
+        <v>-0.004370676606538355</v>
       </c>
       <c r="E83">
-        <v>-0.01831794056908957</v>
+        <v>0.005836127817570242</v>
       </c>
       <c r="F83">
-        <v>0.05314753963724823</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.02122705140862463</v>
+      </c>
+      <c r="G83">
+        <v>0.02291737170681579</v>
+      </c>
+      <c r="H83">
+        <v>0.04908568065896432</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2092629199448567</v>
+        <v>0.1841838235648181</v>
       </c>
       <c r="C85">
-        <v>-0.1648718676486073</v>
+        <v>-0.2217428783204005</v>
       </c>
       <c r="D85">
-        <v>0.01269074732664919</v>
+        <v>0.01682739871356376</v>
       </c>
       <c r="E85">
-        <v>0.1651833165592694</v>
+        <v>-0.0178231196370156</v>
       </c>
       <c r="F85">
-        <v>-0.1417660571146779</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.1200646007692227</v>
+      </c>
+      <c r="G85">
+        <v>-0.04733097088401853</v>
+      </c>
+      <c r="H85">
+        <v>-0.1108407445976281</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.00341163714228531</v>
+        <v>0.009179273786679126</v>
       </c>
       <c r="C86">
-        <v>0.004159720161903443</v>
+        <v>-0.03291999792928333</v>
       </c>
       <c r="D86">
-        <v>0.06985380029731374</v>
+        <v>-0.009029919499413815</v>
       </c>
       <c r="E86">
-        <v>0.0008643954932269351</v>
+        <v>-0.006187264421461925</v>
       </c>
       <c r="F86">
-        <v>0.04342345556026191</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.03003416567334105</v>
+      </c>
+      <c r="G86">
+        <v>0.01058457111731533</v>
+      </c>
+      <c r="H86">
+        <v>0.0736150787029336</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02625123263894295</v>
+        <v>0.005894494637479738</v>
       </c>
       <c r="C87">
-        <v>-0.01766044599131611</v>
+        <v>-0.03929907322489948</v>
       </c>
       <c r="D87">
-        <v>0.03683419052816526</v>
+        <v>-0.01091488447381682</v>
       </c>
       <c r="E87">
-        <v>-0.002608545558187935</v>
+        <v>0.004643366953204726</v>
       </c>
       <c r="F87">
-        <v>0.1019754982059688</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.0360306950702233</v>
+      </c>
+      <c r="G87">
+        <v>0.05195613710169865</v>
+      </c>
+      <c r="H87">
+        <v>0.0844955428477237</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.01998150203749368</v>
+        <v>0.04331874145570975</v>
       </c>
       <c r="C88">
-        <v>0.0008855947670239517</v>
+        <v>-0.01679355846183739</v>
       </c>
       <c r="D88">
-        <v>-0.002694181377682531</v>
+        <v>-0.01756773724180797</v>
       </c>
       <c r="E88">
-        <v>0.01840738837071561</v>
+        <v>-0.02351675420681843</v>
       </c>
       <c r="F88">
-        <v>-0.01966867236861883</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.01969315587551574</v>
+      </c>
+      <c r="G88">
+        <v>-0.0004239618107553077</v>
+      </c>
+      <c r="H88">
+        <v>0.005849254760470257</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.1014734513658849</v>
+        <v>0.318186107213159</v>
       </c>
       <c r="C89">
-        <v>-0.06214022827574893</v>
+        <v>0.2916878203753055</v>
       </c>
       <c r="D89">
-        <v>-0.3353088042830974</v>
+        <v>0.04438247182365898</v>
       </c>
       <c r="E89">
-        <v>-0.1024731284624656</v>
+        <v>0.01024061803194674</v>
       </c>
       <c r="F89">
-        <v>0.0831584500323003</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.007059197195264495</v>
+      </c>
+      <c r="G89">
+        <v>-0.02480674381011446</v>
+      </c>
+      <c r="H89">
+        <v>-0.01543694799267844</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.09002893966865143</v>
+        <v>0.2642713404705793</v>
       </c>
       <c r="C90">
-        <v>-0.02765378988704984</v>
+        <v>0.2667552544763672</v>
       </c>
       <c r="D90">
-        <v>-0.339933164861584</v>
+        <v>0.04129596331755588</v>
       </c>
       <c r="E90">
-        <v>-0.1223454403487943</v>
+        <v>0.003167767597283805</v>
       </c>
       <c r="F90">
-        <v>0.03839134113454894</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.05501843592042618</v>
+      </c>
+      <c r="G90">
+        <v>-0.01762474277340332</v>
+      </c>
+      <c r="H90">
+        <v>-0.06110991623454456</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2396844437496267</v>
+        <v>0.1969194171031147</v>
       </c>
       <c r="C91">
-        <v>-0.2076347167933638</v>
+        <v>-0.2101247118034298</v>
       </c>
       <c r="D91">
-        <v>0.0269521233394869</v>
+        <v>0.03020844160620545</v>
       </c>
       <c r="E91">
-        <v>0.1441823962331087</v>
+        <v>-0.006338293690569455</v>
       </c>
       <c r="F91">
-        <v>-0.2185350247017376</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.09335867848351585</v>
+      </c>
+      <c r="G91">
+        <v>-0.03836018975538676</v>
+      </c>
+      <c r="H91">
+        <v>-0.1853250880007979</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1608915698211618</v>
+        <v>0.2817965683034647</v>
       </c>
       <c r="C92">
-        <v>-0.09764434786849785</v>
+        <v>0.1737254211782672</v>
       </c>
       <c r="D92">
-        <v>-0.4402917062736385</v>
+        <v>0.07879222053689844</v>
       </c>
       <c r="E92">
-        <v>-0.04528362391698301</v>
+        <v>-0.001984237334088591</v>
       </c>
       <c r="F92">
-        <v>-0.08408992582611216</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.04781926932781209</v>
+      </c>
+      <c r="G92">
+        <v>0.01662835394121616</v>
+      </c>
+      <c r="H92">
+        <v>-0.1407380269353879</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.09082592014121785</v>
+        <v>0.2991145774892861</v>
       </c>
       <c r="C93">
-        <v>-0.07511807524399472</v>
+        <v>0.2618919672206059</v>
       </c>
       <c r="D93">
-        <v>-0.3927851505943228</v>
+        <v>0.05071282902846989</v>
       </c>
       <c r="E93">
-        <v>-0.1741198213500947</v>
+        <v>0.03435653757306341</v>
       </c>
       <c r="F93">
-        <v>0.04333379064770273</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.03826534807594984</v>
+      </c>
+      <c r="G93">
+        <v>-0.03358235750927668</v>
+      </c>
+      <c r="H93">
+        <v>0.004595333243409114</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2365008092878924</v>
+        <v>0.2436770654962919</v>
       </c>
       <c r="C94">
-        <v>-0.2153506333937263</v>
+        <v>-0.2357175660277386</v>
       </c>
       <c r="D94">
-        <v>0.01210888599992445</v>
+        <v>0.02023489450902799</v>
       </c>
       <c r="E94">
-        <v>0.2470537917440381</v>
+        <v>-0.005874860394411708</v>
       </c>
       <c r="F94">
-        <v>-0.1567896798323561</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.2153380124147627</v>
+      </c>
+      <c r="G94">
+        <v>-0.03854008578648928</v>
+      </c>
+      <c r="H94">
+        <v>-0.411253171625054</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.004656189032016231</v>
+        <v>0.02878520109688654</v>
       </c>
       <c r="C95">
-        <v>-0.08722024733803384</v>
+        <v>-0.101222694831415</v>
       </c>
       <c r="D95">
-        <v>0.03358290308306613</v>
+        <v>0.003970413691087363</v>
       </c>
       <c r="E95">
-        <v>0.03090901573474655</v>
+        <v>0.08136471473310496</v>
       </c>
       <c r="F95">
-        <v>0.01866576481063164</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.02384063939425575</v>
+      </c>
+      <c r="G95">
+        <v>0.01971478524095592</v>
+      </c>
+      <c r="H95">
+        <v>0.03609605100617932</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1166656336771413</v>
+        <v>0.1856720962365275</v>
       </c>
       <c r="C98">
-        <v>-0.1241333419246961</v>
+        <v>-0.06682666212892953</v>
       </c>
       <c r="D98">
-        <v>-0.01596510401919215</v>
+        <v>0.03008076757479499</v>
       </c>
       <c r="E98">
-        <v>-0.0883691143605126</v>
+        <v>0.06803235149731451</v>
       </c>
       <c r="F98">
-        <v>0.1698644799922157</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.01211208858320658</v>
+      </c>
+      <c r="G98">
+        <v>0.02898326986790566</v>
+      </c>
+      <c r="H98">
+        <v>0.3336099146347498</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.009000182316252577</v>
+        <v>0.006759158431628593</v>
       </c>
       <c r="C101">
-        <v>0.002669494900648755</v>
+        <v>-0.01792424190883806</v>
       </c>
       <c r="D101">
-        <v>0.050938243460016</v>
+        <v>-0.006892945689977873</v>
       </c>
       <c r="E101">
-        <v>0.02516743459845643</v>
+        <v>0.002171097061292273</v>
       </c>
       <c r="F101">
-        <v>0.174291777140173</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.04360366393881144</v>
+      </c>
+      <c r="G101">
+        <v>0.07093544088263455</v>
+      </c>
+      <c r="H101">
+        <v>0.00718210863471168</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.09882538319311897</v>
+        <v>0.09344564394597232</v>
       </c>
       <c r="C102">
-        <v>-0.07286184079577912</v>
+        <v>-0.107462159324156</v>
       </c>
       <c r="D102">
-        <v>0.005780354952918307</v>
+        <v>0.001649091086450961</v>
       </c>
       <c r="E102">
-        <v>0.08638097313361522</v>
+        <v>-0.01205649021625681</v>
       </c>
       <c r="F102">
-        <v>-0.08972092569740352</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.06101821857745894</v>
+      </c>
+      <c r="G102">
+        <v>-0.01487638255766557</v>
+      </c>
+      <c r="H102">
+        <v>-0.06887983034149199</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.04371559593291233</v>
+        <v>0.01150562058881712</v>
       </c>
       <c r="C103">
-        <v>-0.01768660305774208</v>
+        <v>-0.0181273946933889</v>
       </c>
       <c r="D103">
-        <v>0.01740077390337887</v>
+        <v>0.0002421259288547547</v>
       </c>
       <c r="E103">
-        <v>0.04354056454016191</v>
+        <v>-0.01291929826709824</v>
       </c>
       <c r="F103">
-        <v>-0.004822301670454438</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.003217460746433536</v>
+      </c>
+      <c r="G103">
+        <v>0.007297692405421937</v>
+      </c>
+      <c r="H103">
+        <v>-0.01586487567021052</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.1113059554039884</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.08858931546970444</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.9754870532758526</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.02427180226674472</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.09240645530965406</v>
+      </c>
+      <c r="G104">
+        <v>0.08044345404084378</v>
+      </c>
+      <c r="H104">
+        <v>-0.05866143506560514</v>
       </c>
     </row>
   </sheetData>
